--- a/biology/Microbiologie/Neptunomonas/Neptunomonas.xlsx
+++ b/biology/Microbiologie/Neptunomonas/Neptunomonas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Neptunomonas rassemble des bactéries marines à Gram négatif de la famille Oceanospirillaceae et de l'ordre Oceanospirillales. Ces Gammaproteobacteria du phylum Pseudomonadota sont capables de dégrader des hydroxycarbones aromatiques polycycliques.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Neptunomonas a été décrit en 1999 avec la caractérisation de l'espèce Neptunomonas naphthovorans capable de dégrader le naphtalène tout en étant un organisme exclusivement marin[1]. Le nouveau nom est validé par l'ICSP en octobre 1999 dans une publication de l'IJSB[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Neptunomonas a été décrit en 1999 avec la caractérisation de l'espèce Neptunomonas naphthovorans capable de dégrader le naphtalène tout en étant un organisme exclusivement marin. Le nouveau nom est validé par l'ICSP en octobre 1999 dans une publication de l'IJSB.
 </t>
         </is>
       </c>
@@ -544,82 +558,196 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Étymologie
-L'étymologie du nom du genre Neptunomonas est la suivante : Nep.tu.no.mo.nas L. masc. n. Neptunus, Neptune, le dieu romain des mers; L. fem. n. monas, une unité, monère; N.L. fem. n. Neptunomonas, la monère de Neptune[3],[4]. 
-Phylogénie
-Les analyses phylogénétiques, basées sur les séquences du gène ARNr 16S, ont montré leur appartenance à la classe des  Gammaproteobacteria[3],[5].
-Liste des espèces
-Neptunomonas acidivorans Yang et al. 2014
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du nom du genre Neptunomonas est la suivante : Nep.tu.no.mo.nas L. masc. n. Neptunus, Neptune, le dieu romain des mers; L. fem. n. monas, une unité, monère; N.L. fem. n. Neptunomonas, la monère de Neptune,. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Neptunomonas</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Neptunomonas</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les analyses phylogénétiques, basées sur les séquences du gène ARNr 16S, ont montré leur appartenance à la classe des  Gammaproteobacteria,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Neptunomonas</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Neptunomonas</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Neptunomonas acidivorans Yang et al. 2014
 Neptunomonas antarctica  Zhang et al. 2010
 Neptunomonas concharum  Lee et al. 2012
 Neptunomonas japonica Miyazaki et al. 2008
 Neptunomonas marina  Chen et al. 2020
 Neptunomonas naphthovorans Hedlund et al. 1999, espèce type
 Neptunomonas phycophila Frommlet et al. 2015
-Neptunomonas qingdaonensis Liu et al. 2013[6]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+Neptunomonas qingdaonensis Liu et al. 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Neptunomonas</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Microbiologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Neptunomonas</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bactéries du genre Neptunomonas sont des bacilles à Gram négatif aérobies ou anaérobies facultatives et qui sont mobiles par l'intermédiaire de flagelle polaire[3].
-Quinones et acides gras
-Le profil des isoprénoides quinones de plusieurs espèces de Neptunomonas dont Neptunomonas qingdaonensis et Neptunomonas japonica révèle que la quinone Q-8 est majoritaire[6],[7].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bactéries du genre Neptunomonas sont des bacilles à Gram négatif aérobies ou anaérobies facultatives et qui sont mobiles par l'intermédiaire de flagelle polaire.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Neptunomonas</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Microbiologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Neptunomonas</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Quinones et acides gras</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le profil des isoprénoides quinones de plusieurs espèces de Neptunomonas dont Neptunomonas qingdaonensis et Neptunomonas japonica révèle que la quinone Q-8 est majoritaire,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Neptunomonas</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Neptunomonas</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Neptunomonas sont des bactéries marines[7].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Neptunomonas sont des bactéries marines.
 </t>
         </is>
       </c>
